--- a/JP (Exclude Game)/Dialog/Drama/olderyoungersister.xlsx
+++ b/JP (Exclude Game)/Dialog/Drama/olderyoungersister.xlsx
@@ -111,6 +111,12 @@
     <t xml:space="preserve">What's up, #brother2? </t>
   </si>
   <si>
+    <t xml:space="preserve">inject</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unique</t>
+  </si>
+  <si>
     <t xml:space="preserve">change</t>
   </si>
   <si>
@@ -121,12 +127,6 @@
   </si>
   <si>
     <t xml:space="preserve">I want you to change your hairstyle. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">inject</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unique</t>
   </si>
   <si>
     <t xml:space="preserve">choice/bye</t>
@@ -1073,12 +1073,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K120"/>
+  <dimension ref="A1:K121"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="2" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="I45" activeCellId="0" sqref="I45"/>
+      <selection pane="bottomLeft" activeCell="E19" activeCellId="0" sqref="D19:E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.0546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1204,226 +1204,213 @@
         <v>19</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="1" t="s">
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D17" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="E17" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H17" s="1" t="n">
+      <c r="I17" s="5"/>
+      <c r="J17" s="7"/>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B18" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H18" s="1" t="n">
         <v>56</v>
       </c>
-      <c r="I17" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="J17" s="9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D18" s="1" t="s">
+      <c r="I18" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="J18" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="G18" s="5"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D19" s="1" t="s">
-        <v>26</v>
-      </c>
+      <c r="G19" s="5"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D20" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D21" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D24" s="1" t="s">
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D25" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E24" s="1" t="s">
+      <c r="E25" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H25" s="1" t="n">
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H26" s="1" t="n">
         <v>57</v>
       </c>
-      <c r="I25" s="2" t="s">
+      <c r="I26" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="J25" s="9" t="s">
+      <c r="J26" s="9" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="1" t="s">
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B27" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="I27" s="6"/>
-      <c r="J27" s="6"/>
-    </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="1" t="s">
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="I28" s="6"/>
+      <c r="J28" s="6"/>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H29" s="1" t="n">
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H30" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="I29" s="10" t="s">
+      <c r="I30" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="J29" s="7" t="s">
+      <c r="J30" s="7" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I30" s="8"/>
-    </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B31" s="1" t="s">
+      <c r="I31" s="8"/>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B32" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D31" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H31" s="1" t="n">
+      <c r="D32" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H32" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="I31" s="8" t="s">
+      <c r="I32" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="J31" s="2" t="s">
+      <c r="J32" s="2" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D32" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I32" s="1"/>
-      <c r="J32" s="1"/>
-      <c r="K32" s="1"/>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D33" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D34" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D35" s="1" t="s">
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D36" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E35" s="1" t="s">
+      <c r="E36" s="1" t="s">
         <v>40</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H37" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="I37" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="J37" s="9" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H38" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="I38" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="J38" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H39" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="I38" s="11" t="s">
+      <c r="I39" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="J38" s="12" t="s">
+      <c r="J39" s="12" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D39" s="1" t="s">
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D40" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="I39" s="11"/>
-    </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B40" s="1" t="s">
+      <c r="I40" s="11"/>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B41" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="I40" s="1"/>
-    </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I41" s="1"/>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I42" s="1"/>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="1" t="s">
+      <c r="I43" s="1"/>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="I43" s="1"/>
-    </row>
-    <row r="44" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H44" s="1" t="n">
+      <c r="I44" s="1"/>
+    </row>
+    <row r="45" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H45" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="I44" s="5" t="s">
+      <c r="I45" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="J44" s="3" t="s">
+      <c r="J45" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H45" s="1" t="n">
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H46" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="I45" s="1" t="s">
+      <c r="I46" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="J45" s="12" t="s">
+      <c r="J46" s="12" t="s">
         <v>49</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B46" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H46" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="I46" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="J46" s="3" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1431,16 +1418,16 @@
         <v>38</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H47" s="1" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J47" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1448,112 +1435,112 @@
         <v>38</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H48" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="I48" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="J48" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B49" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H49" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="I48" s="1" t="s">
+      <c r="I49" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="J48" s="3" t="s">
+      <c r="J49" s="3" t="s">
         <v>55</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B49" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="C49" s="5"/>
-      <c r="D49" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="H49" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="I49" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="J49" s="3" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B50" s="5" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="C50" s="5"/>
       <c r="D50" s="5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H50" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J50" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B51" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C51" s="5"/>
+      <c r="D51" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H51" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="I50" s="1" t="s">
+      <c r="I51" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="J50" s="2" t="s">
+      <c r="J51" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I51" s="1"/>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I52" s="1"/>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="1" t="s">
+      <c r="I53" s="1"/>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="I53" s="1"/>
-    </row>
-    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D54" s="13" t="s">
+      <c r="I54" s="1"/>
+    </row>
+    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D55" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="E54" s="1" t="s">
+      <c r="E55" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="I54" s="1"/>
-    </row>
-    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H55" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="I55" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="J55" s="9" t="s">
-        <v>63</v>
-      </c>
+      <c r="I55" s="1"/>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H56" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="I56" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="J56" s="9" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H57" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="I56" s="1" t="s">
+      <c r="I57" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="J56" s="12" t="s">
+      <c r="J57" s="12" t="s">
         <v>65</v>
-      </c>
-    </row>
-    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B57" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H57" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="I57" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="J57" s="3" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1561,16 +1548,16 @@
         <v>38</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H58" s="1" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J58" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1578,16 +1565,16 @@
         <v>38</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H59" s="1" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="J59" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1595,16 +1582,16 @@
         <v>38</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H60" s="1" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="J60" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1612,112 +1599,112 @@
         <v>38</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H61" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="I61" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J61" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B62" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H62" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="I61" s="1" t="s">
+      <c r="I62" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="J61" s="5" t="s">
+      <c r="J62" s="5" t="s">
         <v>75</v>
-      </c>
-    </row>
-    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B62" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C62" s="5"/>
-      <c r="D62" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="H62" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="I62" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="J62" s="3" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B63" s="5" t="s">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="C63" s="5"/>
       <c r="D63" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H63" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="I63" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="J63" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B64" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C64" s="5"/>
+      <c r="D64" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H64" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="H63" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="I63" s="1" t="s">
+      <c r="I64" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="J63" s="2" t="s">
+      <c r="J64" s="2" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I64" s="1"/>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I65" s="1"/>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="1" t="s">
+      <c r="I66" s="1"/>
+    </row>
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="I66" s="1"/>
-    </row>
-    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D67" s="13" t="s">
+      <c r="I67" s="1"/>
+    </row>
+    <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D68" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="E67" s="1" t="s">
+      <c r="E68" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="I67" s="1"/>
-    </row>
-    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H68" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="I68" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="J68" s="2" t="s">
-        <v>63</v>
-      </c>
+      <c r="I68" s="1"/>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H69" s="1" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I69" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="J69" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H70" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="I70" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="J69" s="3" t="s">
+      <c r="J70" s="3" t="s">
         <v>82</v>
-      </c>
-    </row>
-    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B70" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D70" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H70" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="I70" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="J70" s="3" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1725,16 +1712,16 @@
         <v>38</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H71" s="1" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="J71" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1742,16 +1729,16 @@
         <v>38</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H72" s="1" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I72" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="J72" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1759,16 +1746,16 @@
         <v>38</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H73" s="1" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I73" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="J73" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1776,91 +1763,91 @@
         <v>38</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H74" s="1" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I74" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="J74" s="5" t="s">
-        <v>92</v>
+        <v>89</v>
+      </c>
+      <c r="J74" s="3" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B75" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H75" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="I75" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="J75" s="5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B76" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="C75" s="5"/>
-      <c r="D75" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="H75" s="1" t="n">
+      <c r="C76" s="5"/>
+      <c r="D76" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H76" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="I75" s="1" t="s">
+      <c r="I76" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="J75" s="3" t="s">
+      <c r="J76" s="3" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I76" s="1"/>
-    </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="1" t="s">
+      <c r="I77" s="1"/>
+    </row>
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="I77" s="1"/>
-    </row>
-    <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D78" s="13" t="s">
+      <c r="I78" s="1"/>
+    </row>
+    <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D79" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="E78" s="1" t="s">
+      <c r="E79" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="I78" s="1"/>
-    </row>
-    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H79" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="I79" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="J79" s="2" t="s">
-        <v>63</v>
-      </c>
+      <c r="I79" s="1"/>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H80" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="I80" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="J80" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H81" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="I80" s="1" t="s">
+      <c r="I81" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="J80" s="3" t="s">
+      <c r="J81" s="3" t="s">
         <v>97</v>
-      </c>
-    </row>
-    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B81" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D81" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H81" s="1" t="n">
-        <v>32</v>
-      </c>
-      <c r="I81" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="J81" s="3" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1868,50 +1855,50 @@
         <v>38</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H82" s="1" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I82" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="J82" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B83" s="1" t="s">
-        <v>102</v>
+        <v>38</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H83" s="1" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I83" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="J83" s="3" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B84" s="1" t="s">
-        <v>38</v>
+        <v>102</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H84" s="1" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I84" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="J84" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1919,34 +1906,33 @@
         <v>38</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H85" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="I85" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="J85" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B86" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H86" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="I85" s="1" t="s">
+      <c r="I86" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="J85" s="5" t="s">
+      <c r="J86" s="5" t="s">
         <v>108</v>
-      </c>
-    </row>
-    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B86" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C86" s="5"/>
-      <c r="D86" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="H86" s="1" t="n">
-        <v>37</v>
-      </c>
-      <c r="I86" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="J86" s="3" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1955,16 +1941,16 @@
       </c>
       <c r="C87" s="5"/>
       <c r="D87" s="5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H87" s="1" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I87" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="J87" s="2" t="s">
-        <v>112</v>
+        <v>109</v>
+      </c>
+      <c r="J87" s="3" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1973,110 +1959,111 @@
       </c>
       <c r="C88" s="5"/>
       <c r="D88" s="5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H88" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="I88" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="J88" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B89" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C89" s="5"/>
+      <c r="D89" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H89" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="I88" s="1" t="s">
+      <c r="I89" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="J88" s="2" t="s">
+      <c r="J89" s="2" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I89" s="1"/>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I90" s="1"/>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="1" t="s">
+      <c r="I91" s="1"/>
+    </row>
+    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="I91" s="1"/>
-    </row>
-    <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D92" s="13" t="s">
+      <c r="I92" s="1"/>
+    </row>
+    <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D93" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="E92" s="1" t="s">
+      <c r="E93" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="I92" s="1"/>
-    </row>
-    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H93" s="1" t="n">
-        <v>40</v>
-      </c>
-      <c r="I93" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="J93" s="2" t="s">
-        <v>116</v>
-      </c>
+      <c r="I93" s="1"/>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H94" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="I94" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="J94" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H95" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="I94" s="1" t="s">
+      <c r="I95" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="J94" s="3" t="s">
+      <c r="J95" s="3" t="s">
         <v>118</v>
-      </c>
-    </row>
-    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B95" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D95" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H95" s="1" t="n">
-        <v>42</v>
-      </c>
-      <c r="I95" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="J95" s="3" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B96" s="1" t="s">
-        <v>121</v>
+        <v>38</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H96" s="1" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I96" s="5" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="J96" s="3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B97" s="1" t="s">
-        <v>38</v>
+        <v>121</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H97" s="1" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I97" s="5" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="J97" s="3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2084,16 +2071,16 @@
         <v>38</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H98" s="1" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I98" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="J98" s="5" t="s">
-        <v>127</v>
+        <v>124</v>
+      </c>
+      <c r="J98" s="3" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2101,16 +2088,16 @@
         <v>38</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H99" s="1" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I99" s="5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="J99" s="5" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2118,34 +2105,33 @@
         <v>38</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H100" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="I100" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="J100" s="5" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B101" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H101" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="I100" s="5" t="s">
+      <c r="I101" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="J100" s="5" t="s">
+      <c r="J101" s="5" t="s">
         <v>131</v>
-      </c>
-    </row>
-    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B101" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C101" s="5"/>
-      <c r="D101" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="H101" s="1" t="n">
-        <v>48</v>
-      </c>
-      <c r="I101" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="J101" s="3" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2154,154 +2140,172 @@
       </c>
       <c r="C102" s="5"/>
       <c r="D102" s="5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H102" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="I102" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="J102" s="3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B103" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C103" s="5"/>
+      <c r="D103" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H103" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="I102" s="5" t="s">
+      <c r="I103" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="J102" s="2" t="s">
+      <c r="J103" s="2" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I103" s="1"/>
-    </row>
-    <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="1" t="s">
+    <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I104" s="1"/>
+    </row>
+    <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="1" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D106" s="13" t="s">
+    <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D107" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="E106" s="1" t="s">
+      <c r="E107" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H107" s="1" t="n">
+    <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H108" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="I107" s="1" t="s">
+      <c r="I108" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="J107" s="2" t="s">
+      <c r="J108" s="2" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="108" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H108" s="1" t="n">
+    <row r="109" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H109" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="I108" s="6" t="s">
+      <c r="I109" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="J108" s="2" t="s">
+      <c r="J109" s="2" t="s">
         <v>137</v>
-      </c>
-    </row>
-    <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B109" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="C109" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="D109" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H109" s="1" t="n">
-        <v>52</v>
-      </c>
-      <c r="I109" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="J109" s="2" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B110" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H110" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="I110" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="J110" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B111" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="D110" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H110" s="1" t="n">
+      <c r="D111" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H111" s="1" t="n">
         <v>53</v>
       </c>
-      <c r="I110" s="2" t="s">
+      <c r="I111" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="J110" s="2" t="s">
+      <c r="J111" s="2" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="1" t="s">
+    <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A113" s="1" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="113" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H113" s="1" t="n">
+    <row r="114" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H114" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="I113" s="6" t="s">
+      <c r="I114" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="J113" s="9" t="s">
+      <c r="J114" s="9" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="114" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D114" s="5" t="s">
+    <row r="115" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D115" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E114" s="5" t="s">
+      <c r="E115" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="I114" s="6"/>
-    </row>
-    <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D115" s="1" t="s">
+      <c r="I115" s="6"/>
+    </row>
+    <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D116" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E115" s="1" t="s">
+      <c r="E116" s="1" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B117" s="1" t="s">
+    <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B118" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="1" t="s">
+    <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A119" s="1" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H119" s="1" t="n">
+    <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H120" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="I119" s="6" t="s">
+      <c r="I120" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="J119" s="9" t="s">
+      <c r="J120" s="9" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B120" s="1" t="s">
+    <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B121" s="1" t="s">
         <v>32</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="H20:H31 I32 H4:H17 I18:I19 H33:H1048576">
+  <conditionalFormatting sqref="H21:H32 I33 H4:H18 I19:I20 H34:H1048576">
     <cfRule type="duplicateValues" priority="2" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0"/>
   </conditionalFormatting>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/JP (Exclude Game)/Dialog/Drama/olderyoungersister.xlsx
+++ b/JP (Exclude Game)/Dialog/Drama/olderyoungersister.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="152">
   <si>
     <t xml:space="preserve">step</t>
   </si>
@@ -62,6 +62,9 @@
   </si>
   <si>
     <t xml:space="preserve">main2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">survival</t>
   </si>
   <si>
     <t xml:space="preserve">&gt;=,olderyoungersister,1</t>
@@ -1075,10 +1078,10 @@
   </sheetPr>
   <dimension ref="A1:K121"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="E19" activeCellId="0" sqref="D19:E19"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="F9" activeCellId="0" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.0546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1145,25 +1148,33 @@
         <v>12</v>
       </c>
     </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D10" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1198,37 +1209,37 @@
         <v>1</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D17" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I17" s="5"/>
       <c r="J17" s="7"/>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H18" s="1" t="n">
         <v>56</v>
       </c>
       <c r="I18" s="8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J18" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1239,7 +1250,7 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D20" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
@@ -1247,20 +1258,20 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D21" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D25" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1268,15 +1279,15 @@
         <v>57</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J26" s="9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1287,7 +1298,7 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1295,10 +1306,10 @@
         <v>2</v>
       </c>
       <c r="I30" s="10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1306,24 +1317,24 @@
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H32" s="1" t="n">
         <v>3</v>
       </c>
       <c r="I32" s="8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D33" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
@@ -1331,18 +1342,18 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D34" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1350,10 +1361,10 @@
         <v>4</v>
       </c>
       <c r="I38" s="11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J38" s="9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1361,21 +1372,21 @@
         <v>5</v>
       </c>
       <c r="I39" s="11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J39" s="12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D40" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I40" s="11"/>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B41" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I41" s="1"/>
     </row>
@@ -1387,7 +1398,7 @@
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I44" s="1"/>
     </row>
@@ -1396,10 +1407,10 @@
         <v>6</v>
       </c>
       <c r="I45" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J45" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1407,97 +1418,97 @@
         <v>7</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J46" s="12" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B47" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H47" s="1" t="n">
         <v>8</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J47" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B48" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H48" s="1" t="n">
         <v>9</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J48" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B49" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H49" s="1" t="n">
         <v>10</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J49" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B50" s="5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C50" s="5"/>
       <c r="D50" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H50" s="1" t="n">
         <v>11</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J50" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B51" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C51" s="5"/>
       <c r="D51" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H51" s="1" t="n">
         <v>12</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="J51" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1508,16 +1519,16 @@
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I54" s="1"/>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D55" s="13" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I55" s="1"/>
     </row>
@@ -1526,10 +1537,10 @@
         <v>13</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="J56" s="9" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1537,131 +1548,131 @@
         <v>14</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J57" s="12" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B58" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H58" s="1" t="n">
         <v>15</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="J58" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B59" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H59" s="1" t="n">
         <v>16</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="J59" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B60" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H60" s="1" t="n">
         <v>17</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J60" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B61" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H61" s="1" t="n">
         <v>18</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J61" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B62" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H62" s="1" t="n">
         <v>19</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J62" s="5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B63" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C63" s="5"/>
       <c r="D63" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H63" s="1" t="n">
         <v>20</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J63" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B64" s="5" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C64" s="5"/>
       <c r="D64" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H64" s="1" t="n">
         <v>21</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J64" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1672,16 +1683,16 @@
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I67" s="1"/>
     </row>
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D68" s="13" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I68" s="1"/>
     </row>
@@ -1690,10 +1701,10 @@
         <v>22</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="J69" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1701,113 +1712,113 @@
         <v>23</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J70" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B71" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H71" s="1" t="n">
         <v>24</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J71" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B72" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H72" s="1" t="n">
         <v>25</v>
       </c>
       <c r="I72" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J72" s="3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B73" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H73" s="1" t="n">
         <v>26</v>
       </c>
       <c r="I73" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="J73" s="3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B74" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H74" s="1" t="n">
         <v>27</v>
       </c>
       <c r="I74" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="J74" s="3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B75" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H75" s="1" t="n">
         <v>28</v>
       </c>
       <c r="I75" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="J75" s="5" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B76" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C76" s="5"/>
       <c r="D76" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H76" s="1" t="n">
         <v>29</v>
       </c>
       <c r="I76" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="J76" s="3" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1815,16 +1826,16 @@
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I78" s="1"/>
     </row>
     <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D79" s="13" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I79" s="1"/>
     </row>
@@ -1833,10 +1844,10 @@
         <v>30</v>
       </c>
       <c r="I80" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="J80" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1844,149 +1855,149 @@
         <v>31</v>
       </c>
       <c r="I81" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="J81" s="3" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B82" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H82" s="1" t="n">
         <v>32</v>
       </c>
       <c r="I82" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="J82" s="3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B83" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H83" s="1" t="n">
         <v>33</v>
       </c>
       <c r="I83" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="J83" s="3" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B84" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H84" s="1" t="n">
         <v>34</v>
       </c>
       <c r="I84" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="J84" s="3" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B85" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H85" s="1" t="n">
         <v>35</v>
       </c>
       <c r="I85" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="J85" s="3" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B86" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H86" s="1" t="n">
         <v>36</v>
       </c>
       <c r="I86" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="J86" s="5" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B87" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C87" s="5"/>
       <c r="D87" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H87" s="1" t="n">
         <v>37</v>
       </c>
       <c r="I87" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="J87" s="3" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B88" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C88" s="5"/>
       <c r="D88" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H88" s="1" t="n">
         <v>38</v>
       </c>
       <c r="I88" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="J88" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B89" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C89" s="5"/>
       <c r="D89" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H89" s="1" t="n">
         <v>39</v>
       </c>
       <c r="I89" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="J89" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1997,16 +2008,16 @@
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="I92" s="1"/>
     </row>
     <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D93" s="13" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I93" s="1"/>
     </row>
@@ -2015,10 +2026,10 @@
         <v>40</v>
       </c>
       <c r="I94" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="J94" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2026,148 +2037,148 @@
         <v>41</v>
       </c>
       <c r="I95" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="J95" s="3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B96" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H96" s="1" t="n">
         <v>42</v>
       </c>
       <c r="I96" s="5" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="J96" s="3" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B97" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H97" s="1" t="n">
         <v>43</v>
       </c>
       <c r="I97" s="5" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="J97" s="3" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B98" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H98" s="1" t="n">
         <v>44</v>
       </c>
       <c r="I98" s="5" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="J98" s="3" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B99" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H99" s="1" t="n">
         <v>45</v>
       </c>
       <c r="I99" s="5" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="J99" s="5" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B100" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H100" s="1" t="n">
         <v>46</v>
       </c>
       <c r="I100" s="5" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="J100" s="5" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B101" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H101" s="1" t="n">
         <v>47</v>
       </c>
       <c r="I101" s="5" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="J101" s="5" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B102" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C102" s="5"/>
       <c r="D102" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H102" s="1" t="n">
         <v>48</v>
       </c>
       <c r="I102" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J102" s="3" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B103" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C103" s="5"/>
       <c r="D103" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H103" s="1" t="n">
         <v>49</v>
       </c>
       <c r="I103" s="5" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="J103" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2175,15 +2186,15 @@
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D107" s="13" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2191,10 +2202,10 @@
         <v>50</v>
       </c>
       <c r="I108" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="J108" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2202,52 +2213,52 @@
         <v>51</v>
       </c>
       <c r="I109" s="6" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="J109" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B110" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H110" s="1" t="n">
         <v>52</v>
       </c>
       <c r="I110" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="J110" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B111" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H111" s="1" t="n">
         <v>53</v>
       </c>
       <c r="I111" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="J111" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2255,37 +2266,37 @@
         <v>54</v>
       </c>
       <c r="I114" s="6" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="J114" s="9" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D115" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E115" s="5" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="I115" s="6"/>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D116" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B118" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2293,15 +2304,15 @@
         <v>55</v>
       </c>
       <c r="I120" s="6" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="J120" s="9" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B121" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
